--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_02.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_02.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\december-release\idaithalam\samples\idaithalam-excel-apitesting\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63666289-2DAD-4076-AEC3-C338E18AE382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="API-Testing" sheetId="1" r:id="rId4"/>
+    <sheet name="API-Testing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -28,45 +34,9 @@
     <t>ContentType</t>
   </si>
   <si>
-    <t>RequestFile</t>
-  </si>
-  <si>
-    <t>RequestProcessingType</t>
-  </si>
-  <si>
-    <t>ResponseFile</t>
-  </si>
-  <si>
-    <t>ResponseProcessingType</t>
-  </si>
-  <si>
-    <t>HTTPAction</t>
-  </si>
-  <si>
-    <t>ExcludeField</t>
-  </si>
-  <si>
-    <t>HttpStatusCode</t>
-  </si>
-  <si>
-    <t>PetGet</t>
-  </si>
-  <si>
-    <t>get API testing</t>
-  </si>
-  <si>
-    <t>https://live.virtualandemo.com/api/pets/findByTags?tags=grey</t>
-  </si>
-  <si>
     <t>application/json</t>
   </si>
   <si>
-    <t>get_response.json</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
     <t>PetPost</t>
   </si>
   <si>
@@ -76,127 +46,19 @@
     <t>https://live.virtualandemo.com/api/pets</t>
   </si>
   <si>
-    <t>post-request_without_param.json</t>
-  </si>
-  <si>
-    <t>post-response.json</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>RequestHeaders</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
-    <t>ExcludeFields</t>
-  </si>
-  <si>
     <t>StatusCode</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>SkipScenario</t>
   </si>
   <si>
-    <t>true=true</t>
-  </si>
-  <si>
     <t>MultiRun</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>https://live.virtualandemo.com/api/pets/findByTags?tags=[tag]</t>
-  </si>
-  <si>
-    <t>post-request_with_param.json</t>
-  </si>
-  <si>
-    <t>petId</t>
-  </si>
-  <si>
-    <t>petId=100,200;
-penName=doggie,Rocky</t>
-  </si>
-  <si>
-    <t>petname='Rocky'</t>
-  </si>
-  <si>
-    <t>petId,100,200;
-penName=doggie,Rocky</t>
-  </si>
-  <si>
-    <t>petId,100,200;
-penName,doggie,Rocky</t>
-  </si>
-  <si>
-    <t>petId,petName;
-doggie,Rocky</t>
-  </si>
-  <si>
-    <t>petId,petName;
-100,200;doggie,Rocky</t>
-  </si>
-  <si>
-    <t>petId|petName;
-100|200;doggie|Rocky</t>
-  </si>
-  <si>
-    <t>petId|petName;100|200;doggie|Rocky</t>
-  </si>
-  <si>
-    <t>petId|petName;100|doggie;200|Rocky</t>
-  </si>
-  <si>
-    <t>petId|petName;1000|Ethan;1000|John</t>
-  </si>
-  <si>
-    <t>petId|petName;i~1000|Ethan;i~1000|John</t>
-  </si>
-  <si>
-    <t>post-response-params</t>
-  </si>
-  <si>
-    <t>post-response-params.json</t>
-  </si>
-  <si>
-    <t>ResponseByFields</t>
-  </si>
-  <si>
-    <t>id=[petId];name=[petName]</t>
-  </si>
-  <si>
-    <t>id=i~[petId];name=[petName]</t>
-  </si>
-  <si>
-    <t>petName='Rocky'</t>
-  </si>
-  <si>
-    <t>[petName]='Ethan'</t>
-  </si>
-  <si>
-    <t>'[petName]'='Ethan'</t>
-  </si>
-  <si>
-    <t>[petName]=Ethan</t>
-  </si>
-  <si>
-    <t>EXACT ([petName],Ethan)</t>
-  </si>
-  <si>
-    <t>EXACT("[petName]","Ethan")</t>
-  </si>
-  <si>
-    <t>EXACT("[petName]","Ethan"")</t>
-  </si>
-  <si>
-    <t>EXACT ("[petName]","Ethan")</t>
   </si>
   <si>
     <t>RequestContent</t>
@@ -226,15 +88,6 @@
 }</t>
   </si>
   <si>
-    <t>petId|petName;1000|Test1;2000|Test2</t>
-  </si>
-  <si>
-    <t>petId|petName;1000L|Test1;2000L|Test2</t>
-  </si>
-  <si>
-    <t>petId|petName;i~1000|Test1;i~2000L|Test2</t>
-  </si>
-  <si>
     <t>petId|petName;i~1000|Test1;i~2000|Test2</t>
   </si>
   <si>
@@ -247,99 +100,41 @@
     <t>RiskCalculator</t>
   </si>
   <si>
-    <t>/riskfactor/compute</t>
-  </si>
-  <si>
     <t>https://live.virtualandemo.com/api/riskfactor/compute</t>
-  </si>
-  <si>
-    <t>EXACT ([API_STATUS_CODE],201)</t>
-  </si>
-  <si>
-    <t>EXACT([API_STATUS_CODE],201)</t>
-  </si>
-  <si>
-    <t>[API_STATUS_CODE]=201</t>
-  </si>
-  <si>
-    <t>[STATUS_CODE]=201</t>
-  </si>
-  <si>
-    <t>AddifyVariables</t>
-  </si>
-  <si>
-    <t>STATUS_CODE=0</t>
-  </si>
-  <si>
-    <t>65)\r\n\t</t>
-  </si>
-  <si>
-    <t>65\r\n\t</t>
-  </si>
-  <si>
-    <t>{
-  "category": {
-    "id": 0,
-    "name": "|string"
-  },
-  "id": &lt;petId&gt;,
-  "name": "&lt;petName&gt;",
-  "photoUrls": [
-    "string"
-  ],
-  "status": "available",
-  "tags": [
-    {
-      "id": 0,
-      "name": "string"
-    }
-  ],
-  "type": "DOGS"
-}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
       <name val="Consolas"/>
-      <b/>
-      <color rgb="FF008000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
       <name val="Inconsolata"/>
-      <b/>
-      <color rgb="FF1155CC"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
@@ -347,7 +142,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -357,42 +152,54 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -582,29 +389,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.14" customWidth="1"/>
-    <col min="3" max="3" width="176.14" customWidth="1"/>
-    <col min="5" max="5" width="29.47" customWidth="1"/>
-    <col min="6" max="6" width="23.29" customWidth="1"/>
-    <col min="9" max="9" width="22.54" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="176.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,80 +428,77 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>69</v>
+    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="0">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
         <v>65</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="0">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
         <v>200</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>61</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1">
         <v>201</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>65</v>
+      <c r="J3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -701,9 +508,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://live.virtualandemo.com/api/pets/findByTags?tags=grey" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_02.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\december-release\idaithalam\samples\idaithalam-excel-apitesting\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Extra\Conflict Resolving\idaithalam\samples\idaithalam-excel-apitesting\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63666289-2DAD-4076-AEC3-C338E18AE382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CC672F-17D5-4D1A-88EC-5B2976E7532D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API-Testing" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>https://live.virtualandemo.com/api/riskfactor/compute</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -399,54 +405,57 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="176.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="176.109375" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -454,62 +463,68 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>65</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>201</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="H2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G2))&gt;0</formula>
+      <formula>LEN(TRIM(H2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://live.virtualandemo.com/api/pets/findByTags?tags=grey" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://live.virtualandemo.com/api/pets/findByTags?tags=grey" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_02.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_02.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Extra\Conflict Resolving\idaithalam\samples\idaithalam-excel-apitesting\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\march-release\idaithalam\samples\idaithalam-excel-apitesting\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CC672F-17D5-4D1A-88EC-5B2976E7532D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F87A6B-3562-43BA-9563-2531ED2398C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="API-Testing" sheetId="1" r:id="rId1"/>
+    <sheet name="Multirun-Aggregator-ALL-API-RES" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>StatusCode</t>
-  </si>
-  <si>
-    <t>SkipScenario</t>
   </si>
   <si>
     <t>MultiRun</t>
@@ -88,9 +85,6 @@
 }</t>
   </si>
   <si>
-    <t>petId|petName;i~1000|Test1;i~2000|Test2</t>
-  </si>
-  <si>
     <t>{
   "birthday" : "1918-10-24",
   "postalCode" : "60563"
@@ -107,6 +101,28 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Csvson</t>
+  </si>
+  <si>
+    <t>ResponseProcessingType</t>
+  </si>
+  <si>
+    <t>aggregatedStdType=API_AGGREGATE</t>
+  </si>
+  <si>
+    <t>StoreResponseVariables</t>
+  </si>
+  <si>
+    <t>&lt;var&gt;=.</t>
+  </si>
+  <si>
+    <t>totalMessageCount
+i~&lt;valueCount&gt;</t>
+  </si>
+  <si>
+    <t>petId|petName|var|valueCount;i~1000|Test1|jsonString_1|0;i~2000|Test2|jsonString_2|1</t>
   </si>
 </sst>
 </file>
@@ -121,26 +137,28 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF008000"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Inconsolata"/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -157,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -165,24 +183,381 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -202,6 +577,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA63D4C5-99EC-4650-A9D5-0A82A2254D1A}" name="Table1" displayName="Table1" ref="A1:M3" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:M3" xr:uid="{BA63D4C5-99EC-4650-A9D5-0A82A2254D1A}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{61CF17DB-5E4B-4DD5-AE23-DAA3FC0B76B4}" name="TestCaseName" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{C06803E6-D221-4C6C-B725-0150B3EDB853}" name="TestCaseNameDesc" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{1E9689FB-F1C9-4029-AAB5-E0893F4C4BEF}" name="Resource" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{DDBD79B0-4887-4AE7-8372-370BF42AE28B}" name="URL" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{B2C67DFD-AFEF-49C4-A2A4-6E236968CF31}" name="ContentType" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{B60961D2-A397-4A0E-A0D0-96711CA0D4BE}" name="RequestContent" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{6C1185F4-1722-4E87-B4F6-8A112987CEBE}" name="ResponseProcessingType" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{EA945E9F-444A-46AA-B2B1-38E23EF96108}" name="ResponseContent" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{4A9FA5FF-BAE8-4808-8DBE-CA06490E2582}" name="Action" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{7ADA4052-F65A-427E-BC5D-85ECDD0D9714}" name="StatusCode" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{ADCCB5A5-CFDE-4252-9009-39C91F9964DD}" name="StoreResponseVariables" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{43795455-5DBF-43B2-8E8C-A56BBB43BCE0}" name="Csvson" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{634CB384-BDC2-4E5C-B2B0-64F8487C73A9}" name="MultiRun" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,22 +802,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="176.109375" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="176.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" customWidth="1"/>
+    <col min="13" max="13" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,98 +831,117 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7">
+        <v>65</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="7">
+        <v>200</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" ht="243" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="J3" s="12">
         <v>201</v>
       </c>
-      <c r="K3" t="s">
-        <v>16</v>
+      <c r="K3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="1">
+      <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -527,5 +949,8 @@
     <hyperlink ref="D4" r:id="rId2" display="https://live.virtualandemo.com/api/pets/findByTags?tags=grey" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>